--- a/data/trans_dic/CONS_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,65</t>
+          <t>1,75; 5,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,93</t>
+          <t>6,97; 15,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,68</t>
+          <t>2,12; 5,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,08</t>
+          <t>3,19; 6,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 9,61</t>
+          <t>7,63; 11,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,91</t>
+          <t>2,26; 5,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,84</t>
+          <t>2,92; 5,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 9,48</t>
+          <t>8,14; 12,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,36</t>
+          <t>2,51; 4,81</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,83</t>
+          <t>1,43; 2,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,34</t>
+          <t>2,94; 7,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,55</t>
+          <t>2,03; 3,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,26</t>
+          <t>1,98; 3,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 8,69</t>
+          <t>4,3; 8,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,85</t>
+          <t>1,76; 3,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,26</t>
+          <t>1,84; 2,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 7,69</t>
+          <t>4,43; 7,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,5</t>
+          <t>2,01; 3,34</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,16%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,28</t>
+          <t>0,61; 2,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,4</t>
+          <t>6,31; 12,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,16</t>
+          <t>1,93; 4,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,65</t>
+          <t>0,76; 2,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,57; 8,75</t>
+          <t>5,36; 9,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,5</t>
+          <t>2,08; 4,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,37</t>
+          <t>0,81; 1,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,33; 9,31</t>
+          <t>6,38; 10,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,09</t>
+          <t>2,32; 4,37</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,92</t>
+          <t>1,54; 2,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 7,96</t>
+          <t>4,66; 8,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,48</t>
+          <t>2,35; 3,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,54</t>
+          <t>2,12; 3,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 8,41</t>
+          <t>5,5; 8,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,85</t>
+          <t>2,25; 3,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 3,46</t>
+          <t>1,95; 2,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 7,92</t>
+          <t>5,62; 8,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 2,54</t>
+          <t>2,45; 3,38</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el catarro</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2619</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24319</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7540</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5726</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>38107</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9860</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8345</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>62426</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17400</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1541; 4452</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15905; 36453</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4565; 11890</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4081; 8084</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30134; 46687</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6190; 15386</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6308; 11006</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50720; 77664</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12303; 23540</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8930</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>76989</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24077</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11023</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>94867</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20847</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19953</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>171855</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>44924</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6498; 11748</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>41470; 104892</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17522; 33341</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8563; 14384</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>59604; 123302</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15237; 28409</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16264; 24360</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>123848; 212995</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34849; 57828</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1842</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42072</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11702</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2351</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31457</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13450</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>73530</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25152</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>919; 3591</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29020; 58980</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7305; 18222</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1470; 3896</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23783; 42934</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8663; 20654</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2792; 6197</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>57662; 93542</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18467; 34722</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13390</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>143380</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>43318</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19100</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>164431</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>44158</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32490</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>307810</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>87476</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10654; 16808</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>97744; 178756</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>34274; 54599</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16004; 23144</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>122230; 194767</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>35010; 56580</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28170; 37122</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>242706; 361616</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>73994; 101953</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro</t>
+          <t>Consumo de medicamentos para el catarro (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro</t>
+          <t>Consumo de medicamentos para el catarro (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,06</t>
+          <t>2,25; 5,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,97; 15,97</t>
+          <t>7,07; 15,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,33</t>
+          <t>4,56; 8,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,63; 11,83</t>
+          <t>7,55; 12,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,1</t>
+          <t>4,04; 6,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,47</t>
+          <t>8,06; 12,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,59</t>
+          <t>1,6; 2,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,44</t>
+          <t>3,27; 7,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 3,33</t>
+          <t>2,13; 3,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,9</t>
+          <t>3,96; 8,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,75</t>
+          <t>2,04; 2,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,62</t>
+          <t>4,34; 7,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,37</t>
+          <t>0,55; 2,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 12,83</t>
+          <t>6,45; 13,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,01</t>
+          <t>1,1; 2,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,68</t>
+          <t>5,2; 9,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,79</t>
+          <t>1,05; 2,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,36</t>
+          <t>6,49; 10,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,42</t>
+          <t>1,6; 2,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,52</t>
+          <t>4,39; 8,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,07</t>
+          <t>2,51; 3,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,76</t>
+          <t>5,34; 8,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 2,57</t>
+          <t>2,23; 2,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,37</t>
+          <t>5,82; 8,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>3207</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5726</t>
+          <t>7685</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8345</t>
+          <t>10893</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1541; 4452</t>
+          <t>1856; 4868</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15905; 36453</t>
+          <t>16132; 35375</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4081; 8084</t>
+          <t>5533; 10333</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30134; 46687</t>
+          <t>29814; 47957</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6308; 11006</t>
+          <t>8251; 13915</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50720; 77664</t>
+          <t>50243; 78406</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8930</t>
+          <t>9626</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11023</t>
+          <t>12373</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19953</t>
+          <t>21999</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6498; 11748</t>
+          <t>7374; 12584</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41470; 104892</t>
+          <t>46137; 103291</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8563; 14384</t>
+          <t>9456; 15719</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59604; 123302</t>
+          <t>54817; 121489</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16264; 24360</t>
+          <t>18468; 26397</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>123848; 212995</t>
+          <t>121411; 212515</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2351</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4193</t>
+          <t>6078</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>919; 3591</t>
+          <t>970; 3557</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>29020; 58980</t>
+          <t>29637; 63344</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1470; 3896</t>
+          <t>2501; 6544</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23783; 42934</t>
+          <t>23064; 41509</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2792; 6197</t>
+          <t>4220; 9074</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>57662; 93542</t>
+          <t>58635; 94054</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13390</t>
+          <t>14814</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19100</t>
+          <t>24155</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>32490</t>
+          <t>38969</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10654; 16808</t>
+          <t>11506; 18696</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>97744; 178756</t>
+          <t>92153; 177049</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16004; 23144</t>
+          <t>19946; 28619</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>122230; 194767</t>
+          <t>118792; 192314</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28170; 37122</t>
+          <t>33796; 45183</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>242706; 361616</t>
+          <t>251671; 362232</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,47%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,89%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,65%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6,33%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,65%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>9,72%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>5,34%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>6,38; 13,6</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 5,51</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2,25; 5,9</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,07; 15,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 5,51</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>7,73; 12,48</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 5,62</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>4,56; 8,51</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>7,55; 12,15</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 5,62</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>7,87; 11,88</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 4,81</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>4,04; 6,82</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>8,06; 12,58</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 4,81</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,98%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>2,08%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,46%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,79%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,78%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,85%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>7,66%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>2,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,15%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>5,47; 8,79</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 3,87</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1,6; 2,73</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,27; 7,33</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 3,87</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>6,92; 9,93</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 3,27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>2,13; 3,54</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,96; 8,77</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 3,27</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>6,58; 8,84</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 3,34</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>2,04; 2,91</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 7,6</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 3,34</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,13%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,15%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,8%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,09%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1,51%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8,14%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6,45; 13,32</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 4,81</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,55; 2,03</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,45; 13,78</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 4,81</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>5,61; 9,63</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 4,95</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1,1; 2,87</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>5,2; 9,36</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 4,95</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>6,63; 10,42</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 4,37</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,05; 2,25</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>6,49; 10,41</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 4,37</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>2,06%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,84%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,97%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>3,04%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,4%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,83%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>2,57%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>7,12%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>6,56; 9,39</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 3,75</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,6; 2,6</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,39; 8,44</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 3,75</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>7,39; 9,61</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 3,63</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>2,51; 3,61</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 8,65</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 3,63</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>7,37; 9,03</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,45; 3,38</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>2,23; 2,99</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 8,38</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>2,45; 3,38</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>61</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>24186</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7540</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>3207</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>24319</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7540</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>42637</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9860</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>7685</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>38107</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>9860</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>66823</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17400</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>10893</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>62426</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>17400</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>16295; 34731</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4565; 11890</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1856; 4868</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>16132; 35375</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4565; 11890</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>33429; 53942</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6190; 15386</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>5533; 10333</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>29814; 47957</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6190; 15386</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>54091; 81720</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12303; 23540</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>8251; 13915</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>50243; 78406</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>12303; 23540</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>67</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>122</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>89867</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24077</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>9626</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>76989</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>24077</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>106015</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20847</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>12373</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>94867</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>20847</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>195882</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>44924</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>21999</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>171855</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>44924</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>70424; 113231</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17522; 33341</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>7374; 12584</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>46137; 103291</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>17522; 33341</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>87864; 126094</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15237; 28409</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>9456; 15719</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>54817; 121489</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>15237; 28409</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>168392; 226009</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>34849; 57828</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>18468; 26397</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>121411; 212515</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>34849; 57828</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>46639</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11702</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1981</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>42072</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>11702</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>36349</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13450</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4097</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>31457</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>13450</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>82988</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25152</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>6078</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>73530</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>25152</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>32881; 67928</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7305; 18222</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>970; 3557</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>29637; 63344</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7305; 18222</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>27813; 47760</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8663; 20654</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2501; 6544</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>23064; 41509</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8663; 20654</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>66731; 104811</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18467; 34722</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4220; 9074</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>58635; 94054</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>18467; 34722</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>85</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>213</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>399</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>173</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>160692</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>43318</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>14814</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>143380</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>43318</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>185001</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>44158</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>24155</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>164431</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>44158</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>345693</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>87476</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>38969</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>307810</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>87476</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>134704; 192779</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>34274; 54599</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>11506; 18696</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>92153; 177049</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>34274; 54599</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>162499; 211291</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>35010; 56580</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>19946; 28619</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>118792; 192314</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>35010; 56580</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>313353; 383873</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>73994; 101953</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>33796; 45183</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>251671; 362232</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>73994; 101953</t>
         </is>
       </c>
     </row>
